--- a/Backlog___1_.xlsx
+++ b/Backlog___1_.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\home\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\home\Year 3\Final_Year_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Epics" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Databases" sheetId="5" r:id="rId5"/>
     <sheet name="Backlog" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t xml:space="preserve">Knowledge Acquisistion tasks </t>
   </si>
@@ -225,13 +225,70 @@
   </si>
   <si>
     <t>About your ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">userID </t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movieID </t>
+  </si>
+  <si>
+    <t>timeStamp</t>
+  </si>
+  <si>
+    <t>imbdID</t>
+  </si>
+  <si>
+    <t>tmdbID</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">followID </t>
+  </si>
+  <si>
+    <t>movieID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -240,23 +297,39 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +348,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -299,11 +384,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -316,6 +453,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,11 +752,11 @@
   </sheetPr>
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" customHeight="1">
@@ -744,9 +895,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="42.453125" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" customHeight="1">
@@ -789,9 +940,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
@@ -836,14 +987,17 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="74.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -854,7 +1008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -865,7 +1019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -874,7 +1028,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -885,7 +1039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -896,7 +1050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -907,7 +1061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -918,7 +1072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -929,7 +1083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -940,7 +1094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -949,7 +1103,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -958,7 +1112,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -969,7 +1123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -978,7 +1132,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -987,57 +1141,57 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>64</v>
@@ -1064,44 +1218,137 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:A7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" thickBot="1">
+      <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="B7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1114,7 +1361,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backlog___1_.xlsx
+++ b/Backlog___1_.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\home\Year 3\Final_Year_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\home\Year 3\Final_Year_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Epics" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
-  <si>
-    <t xml:space="preserve">Knowledge Acquisistion tasks </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t xml:space="preserve">Python </t>
   </si>
@@ -59,9 +56,6 @@
     <t>Must, Should, Could, Wont</t>
   </si>
   <si>
-    <t>Postgre/ SQL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Web-based </t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>posts</t>
   </si>
   <si>
-    <t>able to view the movie when clicked, (poster, ratings, comments(?), synopsis)</t>
-  </si>
-  <si>
     <t>user selects a movie and directs them to a different page, shows movie title+poster, genre, rating, time length, description, see if they have rated or not, if not, lets them rate a movie, if they have rated it, show previous rating</t>
   </si>
   <si>
@@ -221,12 +212,6 @@
     <t>able to see other sites ratings for a movie (e.g. rotten tomato)</t>
   </si>
   <si>
-    <t>account settings</t>
-  </si>
-  <si>
-    <t>About your ratings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Table </t>
   </si>
   <si>
@@ -282,13 +267,103 @@
   </si>
   <si>
     <t>movieID</t>
+  </si>
+  <si>
+    <t>As a user I want to be…</t>
+  </si>
+  <si>
+    <t>able to log in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">able to see predicted ratings </t>
+  </si>
+  <si>
+    <t>able to see my account settings</t>
+  </si>
+  <si>
+    <t>able to see my own statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">able to see general (averaged) ratings </t>
+  </si>
+  <si>
+    <t>Essentials</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>able to view the movie when clicked, (poster, ratings synopsis)</t>
+  </si>
+  <si>
+    <t>able to post comments to a given movie</t>
+  </si>
+  <si>
+    <t>able to view the movie when clicked, (poster, ratings, synopsis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Provide accurate movie ratings</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>The system is available even when user causes an error</t>
+  </si>
+  <si>
+    <t>Able to handle user errors</t>
+  </si>
+  <si>
+    <t>Ensure system is responsive, produces instantaneous results</t>
+  </si>
+  <si>
+    <t>Encryption, hash passwords, sanitise SQL parameters/queries</t>
+  </si>
+  <si>
+    <t>User-friendly UI, accessability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge Acquisition tasks </t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Trello/Monday</t>
+  </si>
+  <si>
+    <t>GitLab</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -300,20 +375,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -328,19 +393,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -440,33 +506,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,132 +817,265 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:D18"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" customHeight="1">
+    <row r="1" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B18" s="1" t="s">
-        <v>27</v>
+    </row>
+    <row r="19" spans="1:2" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -883,6 +1083,7 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -891,40 +1092,82 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" customHeight="1">
+    <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B8" s="2"/>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,43 +1179,60 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -985,227 +1245,234 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="74.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="74.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="4" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="4" t="s">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B25" s="1" t="s">
-        <v>66</v>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1224,126 +1491,126 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="E4" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E6" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" thickBot="1">
-      <c r="A3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E7" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="B8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1359,9 +1626,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backlog___1_.xlsx
+++ b/Backlog___1_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\home\Year 3\Final_Year_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\home\Year 3\Final_Year_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t xml:space="preserve">Python </t>
   </si>
@@ -357,6 +357,24 @@
   </si>
   <si>
     <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>generate a usable pyspark model using .csv files =&gt; live database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read how to use django </t>
+  </si>
+  <si>
+    <t>create movie details page</t>
+  </si>
+  <si>
+    <t>create project architecture (MVC stuff)</t>
+  </si>
+  <si>
+    <t>figure how connect django to penguin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create homepage </t>
   </si>
 </sst>
 </file>
@@ -506,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -528,12 +546,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,19 +842,19 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -854,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -862,7 +881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -870,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -878,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -886,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -894,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -902,7 +921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -910,7 +929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -918,7 +937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -926,7 +945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -934,7 +953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -942,12 +961,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>87</v>
       </c>
@@ -955,82 +974,82 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>88</v>
       </c>
@@ -1038,42 +1057,42 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="24" t="s">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>90</v>
       </c>
@@ -1098,12 +1117,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.453125" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1111,12 +1130,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>93</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>96</v>
       </c>
@@ -1132,12 +1151,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>95</v>
       </c>
@@ -1145,7 +1164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>97</v>
       </c>
@@ -1153,7 +1172,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>98</v>
       </c>
@@ -1161,7 +1180,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>100</v>
       </c>
@@ -1185,52 +1204,52 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>107</v>
       </c>
@@ -1248,102 +1267,102 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="74.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1382,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1372,7 +1391,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +1402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1411,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -1401,76 +1420,76 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>90</v>
       </c>
@@ -1491,14 +1510,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1556,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +1573,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1587,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1585,7 +1604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1602,7 +1621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>78</v>
       </c>
@@ -1624,12 +1643,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="117.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Backlog___1_.xlsx
+++ b/Backlog___1_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Epics" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
   <si>
     <t xml:space="preserve">Python </t>
   </si>
@@ -47,9 +47,6 @@
     <t>EPICs</t>
   </si>
   <si>
-    <t>Bootstrap</t>
-  </si>
-  <si>
     <t>MoSCoW</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>PostgreSQL</t>
   </si>
   <si>
-    <t>generate a usable pyspark model using .csv files =&gt; live database</t>
-  </si>
-  <si>
     <t xml:space="preserve">read how to use django </t>
   </si>
   <si>
@@ -375,13 +369,40 @@
   </si>
   <si>
     <t xml:space="preserve">create homepage </t>
+  </si>
+  <si>
+    <t>stefan+ant+ann</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>direna + sofia</t>
+  </si>
+  <si>
+    <t>generate a usable pyspark model using .csv files</t>
+  </si>
+  <si>
+    <t>generate a usable pyspark model using live database</t>
+  </si>
+  <si>
+    <t>read how to use react.js</t>
+  </si>
+  <si>
+    <t>Bootstrap/react.js</t>
+  </si>
+  <si>
+    <t>upload updated UML</t>
+  </si>
+  <si>
+    <t>stefan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -417,6 +438,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -546,11 +573,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -859,242 +886,242 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>28</v>
+      <c r="B20" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>89</v>
+      <c r="B21" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
-        <v>39</v>
+      <c r="B24" s="21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>41</v>
+      <c r="B25" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>43</v>
+      <c r="B26" s="21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
-        <v>45</v>
+      <c r="B27" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1132,60 +1159,60 @@
     </row>
     <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1228,7 @@
   <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1238,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,27 +1258,27 @@
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1294,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B1:E15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1278,152 +1305,152 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4"/>
     </row>
@@ -1440,58 +1467,58 @@
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="23" t="s">
-        <v>59</v>
+      <c r="B21" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1514,122 +1541,122 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="E3" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1643,47 +1670,117 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
-    <col min="2" max="2" width="117.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="91.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="23">
+        <v>13</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="23">
+        <v>13</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="23">
+        <v>8</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="23">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="23">
+        <v>8</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="23">
+        <v>13</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="23">
+        <v>13</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>113</v>
+      <c r="B8" s="23">
+        <v>13</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
